--- a/database/industries/kaghaz/chekapa/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/kaghaz/chekapa/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15ACF8C-2A1A-4462-B7B3-8AC91403CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CDD9F-B91B-42BF-BB79-96277DE26C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/05</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/08</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/08</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-31 (3)</t>
-  </si>
-  <si>
     <t>1400-12-09 (9)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-06-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-24 (8)</t>
-  </si>
-  <si>
-    <t>1400-12-28</t>
+    <t>1401-12-13 (9)</t>
+  </si>
+  <si>
+    <t>1401-12-28 (2)</t>
   </si>
   <si>
     <t>1401-05-12 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-11-24</t>
+    <t>1401-12-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-12-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>2945799</v>
+        <v>5209685</v>
       </c>
       <c r="E11" s="13">
-        <v>5209685</v>
+        <v>2291174</v>
       </c>
       <c r="F11" s="13">
-        <v>2291174</v>
+        <v>5190258</v>
       </c>
       <c r="G11" s="13">
-        <v>5190258</v>
+        <v>7411215</v>
       </c>
       <c r="H11" s="13">
-        <v>7411215</v>
+        <v>10408824</v>
       </c>
       <c r="I11" s="13">
-        <v>10408824</v>
+        <v>2955544</v>
       </c>
       <c r="J11" s="13">
-        <v>2955544</v>
+        <v>6078079</v>
       </c>
       <c r="K11" s="13">
-        <v>6078079</v>
+        <v>9901046</v>
       </c>
       <c r="L11" s="13">
-        <v>9901046</v>
+        <v>14266243</v>
       </c>
       <c r="M11" s="13">
-        <v>14266243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3612004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1744997</v>
+        <v>-3350233</v>
       </c>
       <c r="E12" s="11">
-        <v>-3350233</v>
+        <v>-1402084</v>
       </c>
       <c r="F12" s="11">
-        <v>-1402084</v>
+        <v>-3161767</v>
       </c>
       <c r="G12" s="11">
-        <v>-3161767</v>
+        <v>-4639229</v>
       </c>
       <c r="H12" s="11">
-        <v>-4639229</v>
+        <v>-7524301</v>
       </c>
       <c r="I12" s="11">
-        <v>-7524301</v>
+        <v>-1977948</v>
       </c>
       <c r="J12" s="11">
-        <v>-1977948</v>
+        <v>-4094200</v>
       </c>
       <c r="K12" s="11">
-        <v>-4094200</v>
+        <v>-6940360</v>
       </c>
       <c r="L12" s="11">
-        <v>-6940360</v>
+        <v>-10590781</v>
       </c>
       <c r="M12" s="11">
-        <v>-10590781</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2599981</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1200802</v>
+        <v>1859452</v>
       </c>
       <c r="E13" s="15">
-        <v>1859452</v>
+        <v>889090</v>
       </c>
       <c r="F13" s="15">
-        <v>889090</v>
+        <v>2028491</v>
       </c>
       <c r="G13" s="15">
-        <v>2028491</v>
+        <v>2771986</v>
       </c>
       <c r="H13" s="15">
-        <v>2771986</v>
+        <v>2884523</v>
       </c>
       <c r="I13" s="15">
-        <v>2884523</v>
+        <v>977596</v>
       </c>
       <c r="J13" s="15">
-        <v>977596</v>
+        <v>1983879</v>
       </c>
       <c r="K13" s="15">
-        <v>1983879</v>
+        <v>2960686</v>
       </c>
       <c r="L13" s="15">
-        <v>2960686</v>
+        <v>3675462</v>
       </c>
       <c r="M13" s="15">
-        <v>3675462</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1012023</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-50077</v>
+        <v>-120107</v>
       </c>
       <c r="E14" s="11">
-        <v>-120107</v>
+        <v>-28555</v>
       </c>
       <c r="F14" s="11">
-        <v>-28555</v>
+        <v>-161847</v>
       </c>
       <c r="G14" s="11">
-        <v>-161847</v>
+        <v>-113026</v>
       </c>
       <c r="H14" s="11">
-        <v>-113026</v>
+        <v>-276573</v>
       </c>
       <c r="I14" s="11">
-        <v>-276573</v>
+        <v>-42272</v>
       </c>
       <c r="J14" s="11">
-        <v>-42272</v>
+        <v>-244780</v>
       </c>
       <c r="K14" s="11">
-        <v>-244780</v>
+        <v>-260733</v>
       </c>
       <c r="L14" s="11">
-        <v>-260733</v>
+        <v>-322707</v>
       </c>
       <c r="M14" s="11">
-        <v>-322707</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-96214</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,205 +1003,205 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-21570</v>
+        <v>26832</v>
       </c>
       <c r="E16" s="11">
-        <v>26832</v>
+        <v>2204</v>
       </c>
       <c r="F16" s="11">
-        <v>2204</v>
+        <v>-10132</v>
       </c>
       <c r="G16" s="11">
-        <v>-10132</v>
+        <v>111</v>
       </c>
       <c r="H16" s="11">
-        <v>111</v>
+        <v>-30045</v>
       </c>
       <c r="I16" s="11">
-        <v>-30045</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>0</v>
+        <v>75497</v>
       </c>
       <c r="K16" s="11">
-        <v>75497</v>
+        <v>95029</v>
       </c>
       <c r="L16" s="11">
-        <v>95029</v>
+        <v>39809</v>
       </c>
       <c r="M16" s="11">
-        <v>39809</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>146000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1129155</v>
+        <v>1766177</v>
       </c>
       <c r="E17" s="15">
-        <v>1766177</v>
+        <v>862739</v>
       </c>
       <c r="F17" s="15">
-        <v>862739</v>
+        <v>1856512</v>
       </c>
       <c r="G17" s="15">
-        <v>1856512</v>
+        <v>2659071</v>
       </c>
       <c r="H17" s="15">
-        <v>2659071</v>
+        <v>2577905</v>
       </c>
       <c r="I17" s="15">
-        <v>2577905</v>
+        <v>935324</v>
       </c>
       <c r="J17" s="15">
-        <v>935324</v>
+        <v>1814596</v>
       </c>
       <c r="K17" s="15">
-        <v>1814596</v>
+        <v>2794982</v>
       </c>
       <c r="L17" s="15">
-        <v>2794982</v>
+        <v>3392564</v>
       </c>
       <c r="M17" s="15">
-        <v>3392564</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1061809</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-192496</v>
+        <v>-332949</v>
       </c>
       <c r="E18" s="11">
-        <v>-332949</v>
+        <v>-145984</v>
       </c>
       <c r="F18" s="11">
-        <v>-145984</v>
+        <v>-258811</v>
       </c>
       <c r="G18" s="11">
-        <v>-258811</v>
+        <v>-304264</v>
       </c>
       <c r="H18" s="11">
-        <v>-304264</v>
+        <v>-515122</v>
       </c>
       <c r="I18" s="11">
-        <v>-515122</v>
+        <v>-144270</v>
       </c>
       <c r="J18" s="11">
-        <v>-144270</v>
+        <v>-280649</v>
       </c>
       <c r="K18" s="11">
-        <v>-280649</v>
+        <v>-478062</v>
       </c>
       <c r="L18" s="11">
-        <v>-478062</v>
+        <v>-654109</v>
       </c>
       <c r="M18" s="11">
-        <v>-654109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-194505</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>7508</v>
+        <v>47884</v>
       </c>
       <c r="E19" s="13">
-        <v>47884</v>
+        <v>240</v>
       </c>
       <c r="F19" s="13">
-        <v>240</v>
+        <v>36694</v>
       </c>
       <c r="G19" s="13">
-        <v>36694</v>
+        <v>15969</v>
       </c>
       <c r="H19" s="13">
-        <v>15969</v>
+        <v>454609</v>
       </c>
       <c r="I19" s="13">
-        <v>454609</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>26253</v>
+        <v>65439</v>
       </c>
       <c r="K19" s="13">
-        <v>65439</v>
+        <v>91862</v>
       </c>
       <c r="L19" s="13">
-        <v>91862</v>
+        <v>42988</v>
       </c>
       <c r="M19" s="13">
-        <v>42988</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>944167</v>
+        <v>1481112</v>
       </c>
       <c r="E20" s="17">
-        <v>1481112</v>
+        <v>716995</v>
       </c>
       <c r="F20" s="17">
-        <v>716995</v>
+        <v>1634395</v>
       </c>
       <c r="G20" s="17">
-        <v>1634395</v>
+        <v>2370776</v>
       </c>
       <c r="H20" s="17">
-        <v>2370776</v>
+        <v>2517392</v>
       </c>
       <c r="I20" s="17">
-        <v>2517392</v>
+        <v>791054</v>
       </c>
       <c r="J20" s="17">
-        <v>817307</v>
+        <v>1599386</v>
       </c>
       <c r="K20" s="17">
-        <v>1599386</v>
+        <v>2408782</v>
       </c>
       <c r="L20" s="17">
-        <v>2408782</v>
+        <v>2781443</v>
       </c>
       <c r="M20" s="17">
-        <v>2781443</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>867304</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-207943</v>
+        <v>-282112</v>
       </c>
       <c r="E21" s="13">
-        <v>-282112</v>
+        <v>-139173</v>
       </c>
       <c r="F21" s="13">
-        <v>-139173</v>
+        <v>-374824</v>
       </c>
       <c r="G21" s="13">
-        <v>-374824</v>
+        <v>-462798</v>
       </c>
       <c r="H21" s="13">
-        <v>-462798</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1219,43 +1219,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>736224</v>
+        <v>1199000</v>
       </c>
       <c r="E22" s="17">
-        <v>1199000</v>
+        <v>577822</v>
       </c>
       <c r="F22" s="17">
-        <v>577822</v>
+        <v>1259571</v>
       </c>
       <c r="G22" s="17">
-        <v>1259571</v>
+        <v>1907978</v>
       </c>
       <c r="H22" s="17">
-        <v>1907978</v>
+        <v>2517392</v>
       </c>
       <c r="I22" s="17">
-        <v>2517392</v>
+        <v>791054</v>
       </c>
       <c r="J22" s="17">
-        <v>817307</v>
+        <v>1599386</v>
       </c>
       <c r="K22" s="17">
-        <v>1599386</v>
+        <v>2408782</v>
       </c>
       <c r="L22" s="17">
-        <v>2408782</v>
+        <v>2781443</v>
       </c>
       <c r="M22" s="17">
-        <v>2781443</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>867304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>736224</v>
+        <v>1199000</v>
       </c>
       <c r="E24" s="17">
-        <v>1199000</v>
+        <v>577822</v>
       </c>
       <c r="F24" s="17">
-        <v>577822</v>
+        <v>1259571</v>
       </c>
       <c r="G24" s="17">
-        <v>1259571</v>
+        <v>1907978</v>
       </c>
       <c r="H24" s="17">
-        <v>1907978</v>
+        <v>2517392</v>
       </c>
       <c r="I24" s="17">
-        <v>2517392</v>
+        <v>791054</v>
       </c>
       <c r="J24" s="17">
-        <v>817307</v>
+        <v>1599386</v>
       </c>
       <c r="K24" s="17">
-        <v>1599386</v>
+        <v>2408782</v>
       </c>
       <c r="L24" s="17">
-        <v>2408782</v>
+        <v>2781443</v>
       </c>
       <c r="M24" s="17">
-        <v>2781443</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>867304</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E25" s="13">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F25" s="13">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G25" s="13">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="H25" s="13">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="I25" s="13">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="J25" s="13">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="K25" s="13">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="L25" s="13">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="M25" s="13">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1399,43 +1399,43 @@
         <v>9358065</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E27" s="13">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F27" s="13">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="G27" s="13">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="H27" s="13">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="I27" s="13">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="J27" s="13">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="K27" s="13">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="L27" s="13">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="M27" s="13">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
